--- a/vqamed2019/output_train.xlsx
+++ b/vqamed2019/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,6 +1837,860 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[6.9523377, 6.6269393]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[0.6269592476489028, 0.9404388714733543]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[7.4187474]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[7.361377, 8.619335]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[2.4526687, 2.0145001]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[29.6875, 37.5]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[1.900615]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[3.1248946, 2.8639395]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[16.666666666666664, 16.666666666666664]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[0.23499713497813227, 0.23499713497813227]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2premedOrgan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[2.0542629]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[37.21875]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[2.464489]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[42.4]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[0.5131121350345121]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>premedOrgan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[2.283803, 2.0057278, 1.976203, 1.9666003, 1.962061, 1.9580164, 1.9568317, 1.9555113, 1.9548689, 1.9550279]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[32.625, 38.0, 38.0, 38.0, 38.0, 38.0, 38.0, 38.0, 38.0, 38.0]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[1.9838363]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[2.1376204, 2.162854, 2.1833215, 2.2092063, 2.2367592, 2.244346, 2.2547889, 2.2731216, 2.2846863, 2.2939668]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[42.4, 42.4, 42.4, 42.4, 42.4, 42.4, 42.4, 42.4, 42.4, 42.4]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121, 0.5131121350345121]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>modaltest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[1.7786992, 1.1549411, 1.0197372, 0.9127837, 0.83185625]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[43.4375, 56.56250000000001, 58.65625, 63.78125, 67.40625]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[1.3436217, 1.241222, 1.1141524, 0.97705805, 0.87501884]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[48.8, 59.199999999999996, 57.599999999999994, 65.60000000000001, 64.8]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[0.5376445102901136, 0.6323855249740393, 0.6304880850365664, 0.7077615290299251, 0.7074073163389316]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>modaltest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[2.9782257, 2.4551022, 2.0379949, 1.8229929, 1.7260082]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[20.3125, 33.4375, 38.4375, 47.1875, 45.625]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[3.267711, 2.4913821, 2.8971987, 2.262448, 2.218109]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[8.333333333333332, 33.33333333333333, 8.333333333333332, 33.33333333333333, 16.666666666666664]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[0.14583333333333334, 0.3958333333333333, 0.14583333333333334, 0.3958333333333333, 0.2569444444444444]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>modaltest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[2.9782257, 2.4551022, 2.0379949, 1.8229929, 1.7260082, 1.5872087, 1.5930483, 1.5434277, 1.430689, 1.3673122, 1.3250363, 1.2408253, 1.2219836, 1.1140505, 1.0610023, 1.0798286, 1.0356172, 1.0343341, 0.9035759, 0.89975053]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[20.3125, 33.4375, 38.4375, 47.1875, 45.625, 51.24999999999999, 48.75, 48.75, 52.81249999999999, 55.00000000000001, 50.9375, 54.6875, 57.1875, 58.75, 65.0, 62.5, 63.125, 61.875, 68.125, 67.5]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[1.9655203, 1.5825884, 1.5934685]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[3.267711, 2.4913821, 2.8971987, 2.262448, 2.218109, 2.1347992, 1.9969913, 1.7919034, 2.1085901, 1.6625413, 2.2034695, 2.2066233, 1.8700318, 1.8614173, 1.811611, 2.3971422, 1.6706281, 1.9431334, 2.3125737, 1.7908173]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[8.333333333333332, 33.33333333333333, 8.333333333333332, 33.33333333333333, 16.666666666666664, 50.0, 33.33333333333333, 58.333333333333336, 50.0, 50.0, 50.0, 50.0, 33.33333333333333, 66.66666666666666, 41.66666666666667, 58.333333333333336, 50.0, 41.66666666666667, 50.0, 50.0]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[0.14583333333333334, 0.3958333333333333, 0.14583333333333334, 0.3958333333333333, 0.2569444444444444, 0.5625, 0.3958333333333333, 0.625, 0.5625, 0.5473056368015256, 0.5625, 0.5416666666666666, 0.4084167479126366, 0.7083333333333334, 0.48804422164271943, 0.625, 0.5416666666666666, 0.4861111111111111, 0.5473056368015256, 0.5694444444444444]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>organtest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[2.1179729, 2.0185096, 1.8119024, 1.854475, 2.0748348, 1.9016173, 1.918642, 2.0089686, 1.9410995, 1.9596107, 1.9573505, 1.9256947, 1.9704269, 1.9708033, 1.9646705, 1.9492757, 1.9130144, 1.9020803, 1.8903649, 1.8809254]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[36.5625, 35.625, 39.6875, 40.9375, 33.125, 37.1875, 39.0625, 35.625, 39.375, 38.4375, 36.875, 38.125, 39.375, 39.375, 39.375, 36.875, 40.0, 38.4375, 39.0625, 41.25]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[1.848181, 1.8837014, 1.8162843]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[3.0114567, 3.5088027, 3.2954571, 2.7166338, 2.9942157, 2.9083807, 2.8596191, 3.0579655, 2.9712925, 2.8420575, 2.9543903, 2.9488623, 3.1544135, 3.0158365, 3.365757, 2.9706497, 3.0444603, 4.071655, 3.2207024, 3.2126215]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[16.666666666666664, 16.666666666666664, 16.666666666666664, 41.66666666666667, 16.666666666666664, 16.666666666666664, 8.333333333333332, 16.666666666666664, 16.666666666666664, 50.0, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 16.666666666666664, 25.0]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.46666666666666673, 0.23499713497813227, 0.23499713497813227, 0.15166380164479895, 0.23499713497813227, 0.23499713497813227, 0.5398072950318772, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.23499713497813227, 0.3183304683114656]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PREmedOrgan</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[2.016561, 1.9502313, 1.9142084, 1.7862924, 1.6093348, 1.5388489, 1.4879913, 1.4460499, 1.3761778, 1.2751112, 1.2638866, 1.2143562, 1.1631203, 1.1277965, 1.1771736, 1.1547743, 1.1108302, 1.0567181, 1.0243573, 0.99476504, 0.9663119, 0.90208846, 0.87043, 0.8458753, 0.79404604, 0.76516634, 0.7293658, 0.7219191, 0.7556106, 0.74534833, 0.683638, 0.7007095, 0.6696481, 0.6501205, 0.6350148, 0.62418854, 0.57628596, 0.5909862, 0.57794726, 0.60414714, 0.5866314, 0.55601937, 0.5451651, 0.5531132, 0.56065357, 0.5451105, 0.48305556, 0.48713362, 0.45656037, 0.45850962, 0.49099118, 0.47524488, 0.40372264, 0.4240734, 0.3959638, 0.42910695, 0.4069405, 0.36725056, 0.39320868, 0.35988757, 0.35126847, 0.3664087, 0.34347713, 0.34248152, 0.37507454, 0.3525763, 0.32367858, 0.33822075, 0.3366936, 0.3381506, 0.32239828, 0.32397527, 0.32371765, 0.31452897, 0.2707998, 0.23979446, 0.3086876, 0.32107216, 0.302371, 0.2846786, 0.30223197, 0.26870733, 0.27984223, 0.28238967, 0.24287464, 0.27656472, 0.24669261, 0.2267417, 0.290223, 0.27645493, 0.29764864, 0.30379608, 0.34535408, 0.31532025, 0.24613053, 0.31974584, 0.30408278, 0.26548225, 0.23143756, 0.20527881]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[37.375, 36.96875, 37.0625, 41.0625, 46.3125, 48.34375, 51.125, 52.31249999999999, 54.37499999999999, 57.99999999999999, 58.3125, 60.09375, 60.71875, 61.96874999999999, 60.9375, 61.03125, 62.875, 65.3125, 65.9375, 67.21875, 68.375, 69.53125, 71.90625, 71.6875, 73.8125, 75.1875, 75.59375, 76.4375, 75.59375, 76.125, 78.15625, 76.90625, 78.34375, 79.28125, 80.46875, 80.53125, 81.5, 81.03125, 81.78125, 80.8125, 81.125, 82.6875, 82.53125, 82.90625, 81.65625, 82.875, 85.125, 85.09375, 86.21875, 85.59375, 84.59375, 84.90625, 87.0, 87.28125, 87.84375, 86.875, 87.25, 88.5625, 88.90625, 89.28125, 89.5625, 89.78125, 89.3125, 89.5, 88.125, 89.125, 90.46875, 90.21875, 89.21875, 89.40625, 89.4375, 90.125, 89.9375, 90.125, 92.03125, 92.625, 89.78125, 90.1875, 91.625, 91.0625, 91.0625, 91.90625, 91.625, 91.625, 92.71875, 91.0625, 92.53125, 93.03125, 90.90625, 91.125, 90.4375, 90.15625, 89.25, 91.3125, 92.8125, 89.8125, 90.875, 92.03125, 92.40625, 93.5]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[1.5701705, 1.9790034, 2.6053684, 3.3440192]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[2.4874866, 3.954748, 4.6989183]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[48.0, 53.6, 51.2]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[0.5295920103257421, 0.6066554035578763, 0.5715364278305483]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PREmedOrgan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[0.41634557]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[89.53125]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PREmedPlane</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[1.7554065]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[46.96875]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Plane</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PREmedOrgan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[0.23720558, 0.18343967, 0.19237205, 0.17826071, 0.20503074, 0.1654028, 0.16806522, 0.16068329, 0.1846806, 0.18238539, 0.18845223, 0.18066944, 0.2431582, 0.16848698, 0.17881133, 0.15173525, 0.17656833, 0.21771003, 0.1875371, 0.2287014, 0.21044365, 0.18703319, 0.21864505, 0.2067654, 0.18141161, 0.1881406, 0.22894084, 0.20146221, 0.20084135, 0.17580813, 0.21210301, 0.16948223, 0.2057891, 0.20182908, 0.1712529, 0.166239, 0.13578491, 0.13060535, 0.21122123, 0.23010744, 0.16625324, 0.21178558, 0.16960777, 0.22909375, 0.22144356, 0.19576786, 0.18479304, 0.1601788, 0.1515368, 0.21043034, 0.19075985, 0.16912888, 0.16353166, 0.21557976, 0.22904982, 0.12024497, 0.14787331, 0.11218992, 0.08648742, 0.1871645, 0.1854274, 0.16765328, 0.17979126, 0.17732675, 0.14574622, 0.14089641, 0.1865377, 0.16628788, 0.17664367, 0.16175637, 0.16597809, 0.15374358, 0.14696032, 0.15138894, 0.14529896, 0.17407241, 0.16549695, 0.13780762, 0.15558317, 0.28411517, 0.18177393, 0.20773092, 0.19143303, 0.15692437, 0.13814381, 0.1777311, 0.18505934, 0.19932115, 0.16168098, 0.19141617, 0.19469604, 0.13110472, 0.13149133, 0.13260117, 0.23944603, 0.18096474, 0.16212234, 0.14483728, 0.18038362, 0.26460582]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[93.4375, 94.71875, 95.0, 95.09375, 93.875, 94.9375, 94.96875, 95.1875, 93.90625, 94.5, 94.0625, 94.84375, 92.71875, 95.0, 94.625, 95.46875, 94.34375, 93.3125, 94.25, 93.5, 93.5, 94.375, 93.8125, 93.84375, 94.71875, 94.59375, 92.96875, 93.90625, 93.0625, 94.5625, 93.78125, 95.0625, 93.25, 93.3125, 94.5, 94.75, 96.125, 95.8125, 93.375, 93.0625, 95.09375, 93.0625, 94.875, 93.0625, 92.96875, 94.15625, 94.15625, 95.0, 95.5625, 93.40625, 94.46875, 94.78125, 94.71875, 93.53125, 93.28125, 96.09375, 95.09375, 96.53125, 97.53125, 94.5625, 93.8125, 95.0625, 94.5625, 94.71875, 95.65625, 95.625, 94.40625, 95.21875, 94.6875, 95.09375, 95.03125, 95.4375, 95.53125, 95.59375, 95.78125, 95.125, 95.03125, 95.75, 95.40625, 91.6875, 94.4375, 93.875, 94.34375, 95.15625, 96.15625, 94.28125, 93.90625, 93.84375, 95.53125, 93.78125, 93.96875, 96.15625, 96.09375, 96.28125, 92.875, 94.53125, 95.46875, 96.28125, 95.6875, 92.28125]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[3.5145102, 3.627308, 3.68115, 4.1999106, 4.1082172, 4.0395966, 4.03875, 4.0832753, 4.478656]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[4.536214, 5.3916416, 5.311661, 5.1245995]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[43.2, 44.0, 45.6, 42.4]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[0.4953040620557308, 0.5068616636218736, 0.5244769038809366, 0.4970543207091333]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Organ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PREmedAbnormality</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>200</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[7.6447663, 7.0806894, 6.98076, 6.9495215, 6.929251, 6.9196587, 7.02419, 7.051321, 6.9689918, 6.9277196, 6.90931, 6.9025226, 6.893579, 6.8876047, 6.8815813, 6.877776, 6.87441, 6.871494, 6.871073, 6.8651066, 6.863964, 6.86223, 6.858336, 6.870017, 6.877926, 6.865021, 6.855656, 6.854333, 6.8553195, 6.8474255, 6.848771, 6.846088, 6.8452997, 6.840732, 6.8445168, 6.8403, 6.839632, 6.841376, 6.839557, 6.8381615, 6.8398423, 6.8355975, 6.8334837, 6.8338785, 6.8330913, 6.832321, 6.8307853, 6.834596, 6.83318, 6.8301697, 6.828702, 6.830338, 6.829775, 6.8266587, 6.8288193, 6.8275485, 6.8258195, 6.8236876, 6.826716, 6.824165, 6.8258953, 6.8227243, 6.8260827, 6.8220773, 6.8198824, 6.8206234, 6.819727, 6.8208976, 6.8202024, 6.8212423, 6.820695, 6.8188453, 6.8199625, 6.81816, 6.817465, 6.8176975, 6.8184257, 6.8186574, 6.8151603, 6.8164086, 6.8182983, 6.81512, 6.815185, 6.815985, 6.8147774, 6.815136, 6.816248, 6.813545, 6.814846, 6.8128242, 6.8156476, 6.812253, 6.8139634, 6.81216, 6.8128853, 6.8123665, 6.8124394, 6.811874, 6.8125005, 6.812277, 6.812054, 6.81059, 6.8112645, 6.811242, 6.8091226, 6.809332, 6.8099523, 6.8100543, 6.808529, 6.811275, 6.8095913, 6.8080745, 6.811324, 6.809162, 6.808522, 6.8106937, 6.808214, 6.80706, 6.809099, 6.8079543, 6.8067784, 6.80957, 6.805767, 6.8079853, 6.8066587, 6.807196, 6.807578, 6.8056626, 6.8073907, 6.806989, 6.8060727, 6.806412, 6.8067765, 6.80502, 6.806939, 6.80473, 6.806729, 6.8053374, 6.806211, 6.8050704, 6.805958, 6.804071, 6.8058524, 6.803323, 6.8041906, 6.804048, 6.8033953, 6.8053355, 6.8039923, 6.803007, 6.804868, 6.8032417, 6.8050094, 6.803257, 6.8035064, 6.803921, 6.804081, 6.8020077, 6.8020077, 6.80257, 6.8045707, 6.802669, 6.8026876, 6.8017344, 6.80305, 6.802222, 6.8016477, 6.8023605, 6.8039494, 6.801983, 6.8014183, 6.8014855, 6.801935, 6.80243, 6.801147, 6.8009586, 6.8014884, 6.8017983, 6.801736, 6.801174, 6.801659, 6.800174, 6.800989, 6.800768, 6.8008013, 6.8008995, 6.8017054, 6.8008447, 6.8010993, 6.800908, 6.800906, 6.8005795, 6.8007317, 6.800891, 6.8013444, 6.8000507, 6.80001, 6.801267, 6.7991757, 6.8003163]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[1.8483709273182956, 2.725563909774436, 2.4122807017543857, 2.600250626566416, 2.506265664160401, 2.443609022556391, 1.9110275689223057, 2.318295739348371, 2.318295739348371, 2.2556390977443606, 2.756892230576441, 2.662907268170426, 2.380952380952381, 2.537593984962406, 2.913533834586466, 2.506265664160401, 2.568922305764411, 2.600250626566416, 2.662907268170426, 2.600250626566416, 2.850877192982456, 2.913533834586466, 2.725563909774436, 2.631578947368421, 2.443609022556391, 2.4749373433583957, 2.600250626566416, 2.4749373433583957, 2.631578947368421, 2.850877192982456, 2.537593984962406, 2.568922305764411, 2.6942355889724308, 2.568922305764411, 2.568922305764411, 2.537593984962406, 2.6942355889724308, 2.913533834586466, 2.537593984962406, 2.6942355889724308, 2.318295739348371, 2.756892230576441, 2.631578947368421, 2.788220551378446, 2.6942355889724308, 2.756892230576441, 2.600250626566416, 2.631578947368421, 2.725563909774436, 2.725563909774436, 2.631578947368421, 2.631578947368421, 2.819548872180451, 2.443609022556391, 2.537593984962406, 2.600250626566416, 2.568922305764411, 2.631578947368421, 2.756892230576441, 2.882205513784461, 2.850877192982456, 2.6942355889724308, 2.756892230576441, 2.537593984962406, 2.568922305764411, 2.882205513784461, 3.101503759398496, 2.506265664160401, 2.819548872180451, 2.631578947368421, 2.6942355889724308, 2.4749373433583957, 2.882205513784461, 2.850877192982456, 2.725563909774436, 2.6942355889724308, 2.631578947368421, 2.6942355889724308, 2.537593984962406, 2.568922305764411, 2.631578947368421, 2.631578947368421, 2.756892230576441, 2.662907268170426, 2.6942355889724308, 2.756892230576441, 2.788220551378446, 2.788220551378446, 2.568922305764411, 2.631578947368421, 2.788220551378446, 2.6942355889724308, 2.725563909774436, 2.850877192982456, 2.6942355889724308, 2.944862155388471, 2.4122807017543857, 2.568922305764411, 2.568922305764411, 2.537593984962406, 2.6942355889724308, 2.631578947368421, 2.788220551378446, 2.631578947368421, 2.913533834586466, 2.631578947368421, 2.3496240601503757, 2.725563909774436, 2.725563909774436, 2.850877192982456, 2.631578947368421, 2.725563909774436, 2.756892230576441, 2.788220551378446, 2.882205513784461, 2.662907268170426, 2.631578947368421, 2.944862155388471, 2.662907268170426, 2.568922305764411, 2.756892230576441, 2.788220551378446, 2.725563909774436, 2.4122807017543857, 2.819548872180451, 2.788220551378446, 2.882205513784461, 2.600250626566416, 2.756892230576441, 2.819548872180451, 2.725563909774436, 2.568922305764411, 2.662907268170426, 2.819548872180451, 2.756892230576441, 2.913533834586466, 2.568922305764411, 2.725563909774436, 2.756892230576441, 2.662907268170426, 2.756892230576441, 2.725563909774436, 2.756892230576441, 2.6942355889724308, 2.756892230576441, 2.819548872180451, 2.819548872180451, 2.6942355889724308, 2.756892230576441, 2.913533834586466, 2.725563909774436, 2.850877192982456, 2.6942355889724308, 2.819548872180451, 2.725563909774436, 2.6942355889724308, 2.506265664160401, 2.913533834586466, 2.756892230576441, 2.725563909774436, 2.819548872180451, 2.819548872180451, 2.819548872180451, 2.882205513784461, 2.788220551378446, 2.850877192982456, 2.725563909774436, 2.600250626566416, 2.756892230576441, 2.6942355889724308, 2.913533834586466, 2.819548872180451, 2.882205513784461, 2.6942355889724308, 2.788220551378446, 2.6942355889724308, 2.725563909774436, 2.600250626566416, 2.788220551378446, 2.725563909774436, 2.882205513784461, 2.568922305764411, 2.819548872180451, 2.788220551378446, 2.819548872180451, 2.6942355889724308, 2.788220551378446, 2.788220551378446, 2.819548872180451, 2.850877192982456, 2.819548872180451, 2.850877192982456, 2.6942355889724308, 2.662907268170426, 2.819548872180451, 2.850877192982456, 2.850877192982456, 2.788220551378446, 2.850877192982456, 2.6942355889724308]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[9.016997, 10.111533, 10.034964, 9.631884, 9.940919, 9.875996, 10.588713, 11.01196, 11.136447, 11.134702, 11.119184, 11.20304, 11.228137, 11.196225, 11.186916, 11.286354, 11.285971, 11.284387, 11.329103]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[10.668985, 10.052037, 10.356331, 11.753492, 11.91546, 11.995926, 11.982737, 12.098296, 12.092434]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[0.064, 0.064, 0.0570826822658929, 0.0570826822658929, 0.064, 0.064, 0.064, 0.064, 0.064]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PREmedAbnormality</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>200</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[7.2716613, 6.950963, 6.86455, 6.844729, 6.8370414, 6.8307676, 6.8296866, 6.826804, 6.825563, 6.8229313, 6.8212585, 6.821069, 6.8202615, 6.8191648, 6.818576, 6.8173785, 6.8162656, 6.8175836, 6.8150263, 6.8174243, 6.815118, 6.8147492, 6.814688, 6.814436, 6.8131824, 6.813296, 6.8122478, 6.8123717, 6.8121476, 6.8106375, 6.80965, 6.812238, 6.8109517, 6.810664, 6.8094993, 6.810193, 6.810545, 6.8100133, 6.8102155, 6.809507, 6.808321, 6.808581, 6.8087077, 6.80772, 6.807317, 6.8088765, 6.8047094, 6.807371, 6.8076057, 6.8080873, 6.8064284, 6.807136, 6.8071575, 6.8064876, 6.805461, 6.806268, 6.8066688, 6.8053946, 6.8060436, 6.806298, 6.804523, 6.804757, 6.806382, 6.8044353, 6.804056, 6.8056555, 6.8041234, 6.8043327, 6.8044906, 6.8047853, 6.805318, 6.8047266, 6.80332, 6.804857, 6.803812, 6.8030944, 6.8040304, 6.803931, 6.803767, 6.802668, 6.8037415, 6.803044, 6.803754, 6.803179, 6.8034945, 6.8028092, 6.8031335, 6.80295, 6.8021207, 6.802403, 6.802448, 6.801373, 6.80208, 6.802425, 6.802471, 6.802056, 6.8016534, 6.801654, 6.801922, 6.8013263, 6.8012877, 6.8004723, 6.8022885, 6.801069, 6.8010206, 6.8016095, 6.799068, 6.8020325, 6.800913, 6.8006315, 6.799519, 6.800511, 6.799718, 6.802524, 6.8014092, 6.7999563, 6.7996, 6.800108, 6.80088, 6.8007493, 6.800725, 6.7993255, 6.7989645, 6.7997923, 6.8001866, 6.799474, 6.7999077, 6.7995243, 6.79934, 6.8004274, 6.799205, 6.799167, 6.800277, 6.7977734, 6.798412, 6.7980933, 6.799174, 6.799468, 6.7990017, 6.7986097, 6.79923, 6.799029, 6.79926, 6.7984653, 6.798871, 6.797181, 6.79794, 6.798602, 6.7980394, 6.7983546, 6.798646, 6.7987094, 6.798443, 6.7987075, 6.7974153, 6.798072, 6.796665, 6.7970114, 6.7981772, 6.7978725, 6.7954936, 6.799249, 6.797956, 6.797653, 6.79611, 6.7975054, 6.7965226, 6.7985106, 6.798255, 6.797011, 6.7979054, 6.796668, 6.7971077, 6.7970138, 6.796213, 6.7966986, 6.7983465, 6.7970047, 6.7967196, 6.796868, 6.7980056, 6.796652, 6.7967143, 6.7979827, 6.7975626, 6.7955985, 6.7961555, 6.7954593, 6.795842, 6.796579, 6.7961626, 6.795863, 6.7966805, 6.7959156, 6.796127, 6.7967525, 6.797664, 6.7966466, 6.795993, 6.7969522]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[2.788220551378446, 2.819548872180451, 2.6942355889724308, 2.6942355889724308, 2.568922305764411, 2.756892230576441, 2.631578947368421, 2.600250626566416, 2.537593984962406, 2.568922305764411, 2.568922305764411, 2.725563909774436, 2.506265664160401, 2.6942355889724308, 2.850877192982456, 2.631578947368421, 2.725563909774436, 2.662907268170426, 2.631578947368421, 2.506265664160401, 2.568922305764411, 2.600250626566416, 2.6942355889724308, 2.568922305764411, 2.819548872180451, 2.819548872180451, 2.6942355889724308, 2.6942355889724308, 2.4749373433583957, 2.631578947368421, 2.6942355889724308, 2.506265664160401, 2.725563909774436, 2.6942355889724308, 2.537593984962406, 2.788220551378446, 2.662907268170426, 2.600250626566416, 2.725563909774436, 2.788220551378446, 2.6942355889724308, 2.568922305764411, 2.631578947368421, 2.788220551378446, 2.788220551378446, 2.4749373433583957, 3.164160401002506, 2.756892230576441, 2.568922305764411, 2.443609022556391, 2.882205513784461, 2.725563909774436, 2.819548872180451, 2.537593984962406, 2.944862155388471, 2.631578947368421, 2.631578947368421, 2.756892230576441, 2.756892230576441, 2.882205513784461, 2.6942355889724308, 2.662907268170426, 2.600250626566416, 3.0388471177944862, 2.788220551378446, 2.600250626566416, 2.756892230576441, 2.600250626566416, 2.756892230576441, 2.662907268170426, 2.4749373433583957, 2.756892230576441, 2.788220551378446, 2.788220551378446, 2.631578947368421, 2.6942355889724308, 2.725563909774436, 2.819548872180451, 2.6942355889724308, 2.756892230576441, 2.725563909774436, 2.725563909774436, 2.944862155388471, 2.506265664160401, 2.6942355889724308, 2.882205513784461, 2.6942355889724308, 2.725563909774436, 2.537593984962406, 2.6942355889724308, 2.850877192982456, 2.506265664160401, 2.506265664160401, 2.819548872180451, 2.380952380952381, 2.631578947368421, 2.631578947368421, 2.568922305764411, 2.725563909774436, 2.756892230576441, 2.788220551378446, 2.568922305764411, 2.568922305764411, 2.819548872180451, 2.913533834586466, 2.568922305764411, 2.6942355889724308, 2.850877192982456, 2.788220551378446, 2.662907268170426, 2.788220551378446, 2.944862155388471, 2.568922305764411, 2.537593984962406, 2.819548872180451, 2.600250626566416, 2.819548872180451, 2.913533834586466, 2.600250626566416, 2.600250626566416, 2.725563909774436, 2.913533834586466, 2.568922305764411, 2.756892230576441, 2.882205513784461, 2.537593984962406, 2.819548872180451, 2.631578947368421, 2.600250626566416, 2.662907268170426, 2.756892230576441, 2.882205513784461, 2.568922305764411, 2.788220551378446, 2.725563909774436, 2.756892230576441, 2.913533834586466, 2.819548872180451, 2.819548872180451, 2.788220551378446, 2.756892230576441, 2.756892230576441, 2.756892230576441, 2.600250626566416, 2.600250626566416, 2.725563909774436, 2.537593984962406, 2.819548872180451, 2.882205513784461, 2.756892230576441, 2.788220551378446, 2.819548872180451, 2.600250626566416, 2.568922305764411, 2.662907268170426, 2.6942355889724308, 2.788220551378446, 2.6942355889724308, 2.725563909774436, 2.6942355889724308, 3.070175438596491, 2.756892230576441, 2.662907268170426, 2.662907268170426, 2.882205513784461, 2.380952380952381, 2.882205513784461, 2.6942355889724308, 2.725563909774436, 2.600250626566416, 2.6942355889724308, 2.756892230576441, 2.3496240601503757, 2.4749373433583957, 2.976190476190476, 2.6942355889724308, 2.913533834586466, 2.788220551378446, 2.850877192982456, 2.725563909774436, 2.788220551378446, 2.756892230576441, 2.725563909774436, 2.756892230576441, 2.6942355889724308, 2.850877192982456, 2.725563909774436, 2.725563909774436, 2.913533834586466, 2.631578947368421, 2.756892230576441, 2.850877192982456, 2.600250626566416, 2.662907268170426, 2.6942355889724308, 2.819548872180451, 2.6942355889724308, 2.725563909774436, 2.850877192982456, 2.725563909774436]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[8.225231, 8.694581, 9.232299, 9.742676, 10.1046715, 10.46757, 10.977482, 10.904756, 11.009248, 11.319982, 11.242582, 11.168906, 11.152281, 11.131655, 11.067047, 11.213247, 11.158863, 11.1177225, 11.217517, 11.056908, 11.17126, 11.125778, 10.986415, 11.115522, 11.07849, 11.166946, 11.129149, 11.059167, 11.238427, 11.225136, 11.161289, 11.178152, 11.168999, 11.111209, 11.143773, 11.05404, 11.061988, 11.002361, 11.144783]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[7.4482436, 7.7557077, 7.9257793, 8.116986, 8.341253, 8.488201, 8.566952, 8.699702, 8.832109, 8.921408, 9.076591, 9.296407, 9.44647, 9.50993, 9.58818, 9.876209, 9.943762, 9.936225, 10.239518, 10.200752, 10.364742, 10.499649, 10.557775, 10.641169, 10.648277, 10.5839815, 10.79514, 11.073838, 11.174211, 11.089293, 11.315458, 11.317732, 11.259656, 11.519947, 11.720228, 11.6634655, 11.430791, 11.706295, 11.72715, 11.63135, 11.589173, 11.596739, 11.396912, 11.80242, 11.7561455, 11.576746, 11.64028, 11.696883, 11.96995, 12.14243, 11.936312, 11.862766, 11.82542, 11.63657, 12.051445, 11.884518, 11.915354, 11.955029, 11.8760395, 11.952196, 11.712307, 11.987683, 12.015872, 11.746128, 11.936333, 12.110185, 11.883995, 11.798838, 11.958973, 11.913448, 11.968036, 11.987211, 11.778575, 11.766787, 11.833578, 11.882376, 12.003847, 12.046385, 12.012026, 12.010721, 12.082016, 11.8742485, 12.110291, 11.989171, 11.94775, 12.108601, 11.856155, 11.917536, 11.811871, 11.886118, 12.017262, 11.767786, 11.930475, 11.931259, 12.015674, 11.901511, 11.831617, 12.0027485, 11.831176, 11.81761, 12.129671, 11.748792, 11.963135, 12.001877, 11.954252, 12.047771, 11.836794, 11.94486, 12.02926, 11.895746, 11.93822, 12.074001, 11.9978485, 11.971702, 11.723621, 12.015163, 11.87159, 11.7655115, 11.947807, 11.882487, 11.920335, 11.915367, 11.920916, 11.905749, 11.848053, 11.993397, 11.869306, 11.893782, 11.88118, 11.948166, 12.083523, 11.88359, 12.005516, 11.964684, 11.906057, 11.940392, 11.8100605, 11.956641, 11.904326, 11.82052, 11.8403425, 11.872177, 11.869477, 11.876023, 12.03776, 11.752598, 11.943234, 11.938521, 11.931387, 12.019163, 11.91209, 11.817177, 11.965682, 11.928199, 11.944046, 12.049034, 11.808655, 11.9957, 11.959093, 11.964102, 11.900614, 11.965753, 11.800447, 11.880802, 11.956387, 11.90227, 11.972534, 11.854448, 11.856002, 11.880679, 11.8822365, 11.9028425, 12.00011, 11.94787, 11.924837, 11.952551, 11.945612, 11.884208, 11.886839, 11.813787, 12.015568, 11.839376, 11.8881035, 11.9024, 11.821626, 11.89472, 12.004835, 11.904384, 11.942696, 11.751623, 11.913812, 11.799624, 11.841438, 11.965113, 11.922302, 11.788803, 11.854185, 11.956547, 11.845658]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 4.8, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 4.8, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 4.8, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 4.8, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4, 6.4]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.0490826822658929, 0.064, 0.064, 0.064, 0.064, 0.056, 0.0490826822658929, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.056, 0.064, 0.064, 0.0490826822658929, 0.064, 0.0570826822658929, 0.064, 0.064, 0.064, 0.0570826822658929, 0.064, 0.064, 0.0490826822658929, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.0570826822658929, 0.056, 0.064, 0.056, 0.064, 0.064, 0.064, 0.056, 0.064, 0.056, 0.0570826822658929, 0.056, 0.0490826822658929, 0.064, 0.064, 0.064, 0.056, 0.064, 0.056, 0.064, 0.056, 0.056, 0.056, 0.056, 0.064, 0.064, 0.064, 0.056, 0.0570826822658929, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.0570826822658929, 0.064, 0.0570826822658929, 0.064, 0.056, 0.064, 0.056, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.0570826822658929, 0.056, 0.064, 0.056, 0.064, 0.064, 0.0570826822658929, 0.064, 0.064, 0.056, 0.056, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.056, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.056, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.056, 0.064, 0.064, 0.056, 0.056, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064, 0.064]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
